--- a/data/pca/factorExposure/factorExposure_2018-02-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0121589354904626</v>
+        <v>-0.01029966291183214</v>
       </c>
       <c r="C2">
-        <v>-0.007773744346271091</v>
+        <v>0.02304608667945999</v>
       </c>
       <c r="D2">
-        <v>0.01814340480090472</v>
+        <v>-0.02465999325193144</v>
       </c>
       <c r="E2">
-        <v>0.02906108384552449</v>
+        <v>0.01310719042658214</v>
       </c>
       <c r="F2">
-        <v>0.07439448417286071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.001237450383167224</v>
+      </c>
+      <c r="G2">
+        <v>0.005891263615021783</v>
+      </c>
+      <c r="H2">
+        <v>0.02954851704326274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09613837205629508</v>
+        <v>-0.05699901165253415</v>
       </c>
       <c r="C3">
-        <v>-0.007101743051692732</v>
+        <v>0.07357491045507515</v>
       </c>
       <c r="D3">
-        <v>-0.02268197934845469</v>
+        <v>-0.007058142617210694</v>
       </c>
       <c r="E3">
-        <v>0.1319669440013407</v>
+        <v>0.06028237821554293</v>
       </c>
       <c r="F3">
-        <v>0.2879200919209952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.05143227952441425</v>
+      </c>
+      <c r="G3">
+        <v>0.04332379528760187</v>
+      </c>
+      <c r="H3">
+        <v>0.1108344210356565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04264400883848013</v>
+        <v>-0.03529021012927426</v>
       </c>
       <c r="C4">
-        <v>0.01059063996476491</v>
+        <v>0.06522019580059045</v>
       </c>
       <c r="D4">
-        <v>0.02416169175416254</v>
+        <v>-0.01866543918074682</v>
       </c>
       <c r="E4">
-        <v>-0.01404230013654185</v>
+        <v>-0.008115758530694158</v>
       </c>
       <c r="F4">
-        <v>0.06502845948684319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02822017858818364</v>
+      </c>
+      <c r="G4">
+        <v>0.0458197848445999</v>
+      </c>
+      <c r="H4">
+        <v>0.03042582264408578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04147115942390575</v>
+        <v>-0.01690863983844623</v>
       </c>
       <c r="C6">
-        <v>-0.003042438787583244</v>
+        <v>0.06096107915317421</v>
       </c>
       <c r="D6">
-        <v>0.03736167791162303</v>
+        <v>-0.01364717020088179</v>
       </c>
       <c r="E6">
-        <v>-0.02139289464804699</v>
+        <v>-0.01111570979436383</v>
       </c>
       <c r="F6">
-        <v>0.03993299474951421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.003076505027905028</v>
+      </c>
+      <c r="G6">
+        <v>0.02947201005581014</v>
+      </c>
+      <c r="H6">
+        <v>0.03317326052653872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04005057238059672</v>
+        <v>-0.004807868512813881</v>
       </c>
       <c r="C7">
-        <v>0.06778178210633053</v>
+        <v>0.03737141225756298</v>
       </c>
       <c r="D7">
-        <v>0.005481112742807244</v>
+        <v>-0.01106171866119801</v>
       </c>
       <c r="E7">
-        <v>-0.006469747929147007</v>
+        <v>-0.0229650677433891</v>
       </c>
       <c r="F7">
-        <v>0.03642962721208185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.07500427769167706</v>
+      </c>
+      <c r="G7">
+        <v>0.005024728875413157</v>
+      </c>
+      <c r="H7">
+        <v>0.01836023712375721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.004694584390568132</v>
+        <v>0.005298793629283169</v>
       </c>
       <c r="C8">
-        <v>0.009168938095757213</v>
+        <v>0.004062681057393918</v>
       </c>
       <c r="D8">
-        <v>0.02499889729655883</v>
+        <v>-0.001985957329534675</v>
       </c>
       <c r="E8">
-        <v>-0.00425085360724079</v>
+        <v>0.001439188758031024</v>
       </c>
       <c r="F8">
-        <v>0.06343249834704945</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01894106077175001</v>
+      </c>
+      <c r="G8">
+        <v>0.01609676396831875</v>
+      </c>
+      <c r="H8">
+        <v>0.01889150986099301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03539901889429847</v>
+        <v>-0.01623808426281182</v>
       </c>
       <c r="C9">
-        <v>0.008775009157606463</v>
+        <v>0.04711251127151012</v>
       </c>
       <c r="D9">
-        <v>0.0265985933715358</v>
+        <v>-0.01334038099929852</v>
       </c>
       <c r="E9">
-        <v>0.01403438129521544</v>
+        <v>-0.005264335984489979</v>
       </c>
       <c r="F9">
-        <v>0.06898440645430746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02319709005428789</v>
+      </c>
+      <c r="G9">
+        <v>0.01508874184266392</v>
+      </c>
+      <c r="H9">
+        <v>0.03452316042387247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05711031306774091</v>
+        <v>-0.1301401362323651</v>
       </c>
       <c r="C10">
-        <v>-0.009867238428503284</v>
+        <v>-0.1506319751970338</v>
       </c>
       <c r="D10">
-        <v>-0.1530384450590019</v>
+        <v>0.02101270452019784</v>
       </c>
       <c r="E10">
-        <v>0.08439592553601172</v>
+        <v>0.03435389809585381</v>
       </c>
       <c r="F10">
-        <v>0.006779088416209834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0367517500791376</v>
+      </c>
+      <c r="G10">
+        <v>-0.02974022446342469</v>
+      </c>
+      <c r="H10">
+        <v>-0.0003860977213173366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03141481152043929</v>
+        <v>-0.01382423783418173</v>
       </c>
       <c r="C11">
-        <v>-0.006373017235854489</v>
+        <v>0.04911554103186896</v>
       </c>
       <c r="D11">
-        <v>0.03870132132389244</v>
+        <v>0.0004462744862356724</v>
       </c>
       <c r="E11">
-        <v>-0.02095211124312953</v>
+        <v>-0.01205233010977466</v>
       </c>
       <c r="F11">
-        <v>0.02975449672504152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.0004158599295265896</v>
+      </c>
+      <c r="G11">
+        <v>0.01370255596209785</v>
+      </c>
+      <c r="H11">
+        <v>0.03545862358760057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0397154122487821</v>
+        <v>-0.01764767834827161</v>
       </c>
       <c r="C12">
-        <v>-0.0009437837379386657</v>
+        <v>0.04641620706970213</v>
       </c>
       <c r="D12">
-        <v>0.03429640883552056</v>
+        <v>-0.003572405809055886</v>
       </c>
       <c r="E12">
-        <v>-0.03329843710165047</v>
+        <v>-0.01818015333906751</v>
       </c>
       <c r="F12">
-        <v>0.01047540322746243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0106213652554447</v>
+      </c>
+      <c r="G12">
+        <v>0.007472548845761651</v>
+      </c>
+      <c r="H12">
+        <v>0.01368430468174353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01692685778078768</v>
+        <v>-0.01197445822850787</v>
       </c>
       <c r="C13">
-        <v>-0.01212302384914182</v>
+        <v>0.02387643920934873</v>
       </c>
       <c r="D13">
-        <v>0.003256531828535778</v>
+        <v>-0.02131096514173007</v>
       </c>
       <c r="E13">
-        <v>0.01592960249829369</v>
+        <v>0.01315256808191744</v>
       </c>
       <c r="F13">
-        <v>0.06507133953511292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.004196504673722142</v>
+      </c>
+      <c r="G13">
+        <v>0.0315398403800789</v>
+      </c>
+      <c r="H13">
+        <v>0.0503865943724798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02209754354807412</v>
+        <v>-0.003107697242288563</v>
       </c>
       <c r="C14">
-        <v>0.01561622244047298</v>
+        <v>0.01988262379222036</v>
       </c>
       <c r="D14">
-        <v>0.008041285918793786</v>
+        <v>-0.007033963665757117</v>
       </c>
       <c r="E14">
-        <v>-0.003223634647478395</v>
+        <v>-0.00885792089471539</v>
       </c>
       <c r="F14">
-        <v>0.04459631406279198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03165541336587758</v>
+      </c>
+      <c r="G14">
+        <v>0.009931142064913533</v>
+      </c>
+      <c r="H14">
+        <v>0.009569338787494804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0300999355933543</v>
+        <v>-0.01386492678534228</v>
       </c>
       <c r="C16">
-        <v>-0.001977622739873141</v>
+        <v>0.04185464498124662</v>
       </c>
       <c r="D16">
-        <v>0.03902034567994713</v>
+        <v>0.0005854895469926752</v>
       </c>
       <c r="E16">
-        <v>-0.02228295208797643</v>
+        <v>-0.01016499955694195</v>
       </c>
       <c r="F16">
-        <v>0.03638228298468338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.00776618490870298</v>
+      </c>
+      <c r="G16">
+        <v>0.01269780073962001</v>
+      </c>
+      <c r="H16">
+        <v>0.02533770276352543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03826909110498008</v>
+        <v>-0.01813430094488435</v>
       </c>
       <c r="C19">
-        <v>0.001221025640973578</v>
+        <v>0.04446471149645528</v>
       </c>
       <c r="D19">
-        <v>0.02122689325721682</v>
+        <v>-0.01103804283373695</v>
       </c>
       <c r="E19">
-        <v>-0.01888065576708579</v>
+        <v>0.01243201342101209</v>
       </c>
       <c r="F19">
-        <v>0.08799404469049309</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02849213468277575</v>
+      </c>
+      <c r="G19">
+        <v>0.04210897058027206</v>
+      </c>
+      <c r="H19">
+        <v>0.04347977107426539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0001701666965490764</v>
+        <v>-1.037739423459631e-05</v>
       </c>
       <c r="C20">
-        <v>0.01049882032968425</v>
+        <v>0.02068662251428035</v>
       </c>
       <c r="D20">
-        <v>-0.002931914074396465</v>
+        <v>-0.01088273333439438</v>
       </c>
       <c r="E20">
-        <v>0.002008304604373439</v>
+        <v>0.008465698102716641</v>
       </c>
       <c r="F20">
-        <v>0.0459433750098712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02089330469332722</v>
+      </c>
+      <c r="G20">
+        <v>0.02148853434570797</v>
+      </c>
+      <c r="H20">
+        <v>0.01897364619874268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03364892650729241</v>
+        <v>-0.002820531233518796</v>
       </c>
       <c r="C21">
-        <v>0.02085432436956337</v>
+        <v>0.02003188348991158</v>
       </c>
       <c r="D21">
-        <v>0.02187775586447174</v>
+        <v>-0.01393063484697612</v>
       </c>
       <c r="E21">
-        <v>-0.0005113263240843003</v>
+        <v>0.01090198739393655</v>
       </c>
       <c r="F21">
-        <v>0.03268170688556943</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.03791006071985368</v>
+      </c>
+      <c r="G21">
+        <v>0.007411635517200759</v>
+      </c>
+      <c r="H21">
+        <v>0.0321289785461123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02663188116185443</v>
+        <v>-0.008512076917520973</v>
       </c>
       <c r="C24">
-        <v>-0.003070369638783848</v>
+        <v>0.04099461324846604</v>
       </c>
       <c r="D24">
-        <v>0.02618576544148256</v>
+        <v>-0.004437754263118628</v>
       </c>
       <c r="E24">
-        <v>-0.01742767106259489</v>
+        <v>-0.01494125547327129</v>
       </c>
       <c r="F24">
-        <v>0.02786650093821293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.002907369783126543</v>
+      </c>
+      <c r="G24">
+        <v>0.01001001930930675</v>
+      </c>
+      <c r="H24">
+        <v>0.02951673856883223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03844059230339259</v>
+        <v>-0.02327207250125709</v>
       </c>
       <c r="C25">
-        <v>-0.005074749335748304</v>
+        <v>0.05245856035149946</v>
       </c>
       <c r="D25">
-        <v>0.03207517813313032</v>
+        <v>-0.007907797083476978</v>
       </c>
       <c r="E25">
-        <v>-0.01012822326147749</v>
+        <v>-0.02256101440993731</v>
       </c>
       <c r="F25">
-        <v>0.04199763363634999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.008914758661483679</v>
+      </c>
+      <c r="G25">
+        <v>0.01771873924775638</v>
+      </c>
+      <c r="H25">
+        <v>0.02635199417700239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.0154357400621207</v>
+        <v>-0.002405693657831366</v>
       </c>
       <c r="C26">
-        <v>0.008590448461252618</v>
+        <v>0.00560490539694793</v>
       </c>
       <c r="D26">
-        <v>0.01466907961568911</v>
+        <v>-0.02301808406678256</v>
       </c>
       <c r="E26">
-        <v>0.02646222742768202</v>
+        <v>-0.00415860072235275</v>
       </c>
       <c r="F26">
-        <v>0.04217300797180835</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.02091727263305559</v>
+      </c>
+      <c r="G26">
+        <v>-0.0009570839822018688</v>
+      </c>
+      <c r="H26">
+        <v>0.01231455851754808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.01636740789084238</v>
+        <v>-0.005392419602809959</v>
       </c>
       <c r="C27">
-        <v>0.006684351053584871</v>
+        <v>0.003119365214911774</v>
       </c>
       <c r="D27">
-        <v>-0.008629848809579784</v>
+        <v>0.001346191971008189</v>
       </c>
       <c r="E27">
-        <v>-0.01610468114419645</v>
+        <v>-0.001469764041736642</v>
       </c>
       <c r="F27">
-        <v>0.02077905572999878</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.01345863225070118</v>
+      </c>
+      <c r="G27">
+        <v>0.006216983684176294</v>
+      </c>
+      <c r="H27">
+        <v>-0.005798746870093816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09789334017213153</v>
+        <v>-0.1805324966258158</v>
       </c>
       <c r="C28">
-        <v>-0.0180189011978548</v>
+        <v>-0.1882201174156322</v>
       </c>
       <c r="D28">
-        <v>-0.2118588063011108</v>
+        <v>0.0149165071485684</v>
       </c>
       <c r="E28">
-        <v>0.1110204903754915</v>
+        <v>0.02745499490067734</v>
       </c>
       <c r="F28">
-        <v>-0.008199833510672152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04571461112906435</v>
+      </c>
+      <c r="G28">
+        <v>-0.02800424501076699</v>
+      </c>
+      <c r="H28">
+        <v>0.0006739083046660515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02423701341190873</v>
+        <v>-0.009533250333152646</v>
       </c>
       <c r="C29">
-        <v>0.01270814017244445</v>
+        <v>0.01867532677141225</v>
       </c>
       <c r="D29">
-        <v>0.00714314538966853</v>
+        <v>-0.005752042642856589</v>
       </c>
       <c r="E29">
-        <v>-0.005330049731257353</v>
+        <v>-0.00770547891123273</v>
       </c>
       <c r="F29">
-        <v>0.04164354429486991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02941359511144537</v>
+      </c>
+      <c r="G29">
+        <v>0.008863665118676017</v>
+      </c>
+      <c r="H29">
+        <v>0.0016388678413634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04708727109682623</v>
+        <v>-0.02532510866824117</v>
       </c>
       <c r="C30">
-        <v>-0.05024028260513639</v>
+        <v>0.08414370858854266</v>
       </c>
       <c r="D30">
-        <v>0.05736297278725402</v>
+        <v>-0.02291746746026519</v>
       </c>
       <c r="E30">
-        <v>0.004580748245070724</v>
+        <v>0.001475822436916526</v>
       </c>
       <c r="F30">
-        <v>0.08700808679294664</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02460173266231148</v>
+      </c>
+      <c r="G30">
+        <v>0.03795716332893019</v>
+      </c>
+      <c r="H30">
+        <v>0.04614366641427481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05017718897455514</v>
+        <v>-0.03050714429951309</v>
       </c>
       <c r="C31">
-        <v>0.007376363898041599</v>
+        <v>0.02756696134204764</v>
       </c>
       <c r="D31">
-        <v>0.01460558299028637</v>
+        <v>-0.001037960323917536</v>
       </c>
       <c r="E31">
-        <v>-0.01470923622591179</v>
+        <v>-0.01230010220586799</v>
       </c>
       <c r="F31">
-        <v>0.03100746724252813</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0301727238063484</v>
+      </c>
+      <c r="G31">
+        <v>-0.008289147141861004</v>
+      </c>
+      <c r="H31">
+        <v>-0.007494697883026448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01355877948932443</v>
+        <v>-0.00746046743884032</v>
       </c>
       <c r="C32">
-        <v>0.03379328619441815</v>
+        <v>0.02020237987400104</v>
       </c>
       <c r="D32">
-        <v>0.02370708103616575</v>
+        <v>0.008727807289041089</v>
       </c>
       <c r="E32">
-        <v>-0.01526331600685719</v>
+        <v>-0.0002318395276884939</v>
       </c>
       <c r="F32">
-        <v>0.06028488521306316</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0281523640591052</v>
+      </c>
+      <c r="G32">
+        <v>0.06115685895691986</v>
+      </c>
+      <c r="H32">
+        <v>0.06067798471455017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03808089988219541</v>
+        <v>-0.01219108261751497</v>
       </c>
       <c r="C33">
-        <v>-0.02035235422951349</v>
+        <v>0.04523641017076962</v>
       </c>
       <c r="D33">
-        <v>0.04292776999325915</v>
+        <v>-0.01179852234794016</v>
       </c>
       <c r="E33">
-        <v>0.009402202447328372</v>
+        <v>0.005823648109424404</v>
       </c>
       <c r="F33">
-        <v>0.05532169997887616</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0073887903290745</v>
+      </c>
+      <c r="G33">
+        <v>-0.004014415662156125</v>
+      </c>
+      <c r="H33">
+        <v>0.03773356252180351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03166994380105318</v>
+        <v>-0.02508766358444373</v>
       </c>
       <c r="C34">
-        <v>0.006568170415981349</v>
+        <v>0.05146031997554627</v>
       </c>
       <c r="D34">
-        <v>0.03801312638256388</v>
+        <v>0.008680817468574017</v>
       </c>
       <c r="E34">
-        <v>-0.02794689455066389</v>
+        <v>-0.02620099385454572</v>
       </c>
       <c r="F34">
-        <v>0.03744294623791625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01268010237607776</v>
+      </c>
+      <c r="G34">
+        <v>0.01626269496306831</v>
+      </c>
+      <c r="H34">
+        <v>0.02874847413060223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01719857652939347</v>
+        <v>-0.007936517393630826</v>
       </c>
       <c r="C36">
-        <v>0.01006495424115806</v>
+        <v>0.003347114929078475</v>
       </c>
       <c r="D36">
-        <v>0.0005818568758767584</v>
+        <v>-0.01003548108448706</v>
       </c>
       <c r="E36">
-        <v>0.002614742745866913</v>
+        <v>-0.003166261805943556</v>
       </c>
       <c r="F36">
-        <v>0.02729059785272345</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0194844102023878</v>
+      </c>
+      <c r="G36">
+        <v>-0.001748836647624616</v>
+      </c>
+      <c r="H36">
+        <v>0.006901512258925474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01823262208719034</v>
+        <v>-0.02483035201297712</v>
       </c>
       <c r="C38">
-        <v>9.402344185531551e-05</v>
+        <v>0.01892638221510254</v>
       </c>
       <c r="D38">
-        <v>-0.0006191305670883108</v>
+        <v>0.01046476500934238</v>
       </c>
       <c r="E38">
-        <v>0.03117025552549651</v>
+        <v>-0.007911269374619225</v>
       </c>
       <c r="F38">
-        <v>0.03316299370048265</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01454845660704257</v>
+      </c>
+      <c r="G38">
+        <v>0.007215356867393527</v>
+      </c>
+      <c r="H38">
+        <v>0.01768125829550949</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02676937137550695</v>
+        <v>-6.836193743730661e-05</v>
       </c>
       <c r="C39">
-        <v>0.003918325378350018</v>
+        <v>0.08456327861621211</v>
       </c>
       <c r="D39">
-        <v>0.05285242487214375</v>
+        <v>-0.009749970520825437</v>
       </c>
       <c r="E39">
-        <v>-0.01007418595642466</v>
+        <v>-0.01172226540704526</v>
       </c>
       <c r="F39">
-        <v>0.05524610624434524</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.0006433925793086427</v>
+      </c>
+      <c r="G39">
+        <v>0.02053439404779159</v>
+      </c>
+      <c r="H39">
+        <v>0.05893083549541784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01924554933896019</v>
+        <v>-0.01683256780445879</v>
       </c>
       <c r="C40">
-        <v>-0.03530085031528504</v>
+        <v>0.02476319940918839</v>
       </c>
       <c r="D40">
-        <v>0.02200787622208033</v>
+        <v>-0.008868553723276374</v>
       </c>
       <c r="E40">
-        <v>-0.01927449073046187</v>
+        <v>-0.0004915584257873247</v>
       </c>
       <c r="F40">
-        <v>0.03738264682836867</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02101058694517412</v>
+      </c>
+      <c r="G40">
+        <v>0.02298834012087654</v>
+      </c>
+      <c r="H40">
+        <v>0.03117159864584325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.008602882122496448</v>
+        <v>-0.01007469223904394</v>
       </c>
       <c r="C41">
-        <v>0.005270561592842993</v>
+        <v>-0.009101120380820952</v>
       </c>
       <c r="D41">
-        <v>-0.00319408787672888</v>
+        <v>-0.00264696725969847</v>
       </c>
       <c r="E41">
-        <v>0.01870779077575812</v>
+        <v>-0.005019892743933756</v>
       </c>
       <c r="F41">
-        <v>-0.00831532145418595</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01227689785017166</v>
+      </c>
+      <c r="G41">
+        <v>-0.01475696920405376</v>
+      </c>
+      <c r="H41">
+        <v>-0.002358196089101286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2635020332878197</v>
+        <v>-0.06636430406018752</v>
       </c>
       <c r="C42">
-        <v>-0.1338694398455073</v>
+        <v>0.1868817171601067</v>
       </c>
       <c r="D42">
-        <v>0.4379252274924643</v>
+        <v>-0.1217942514387007</v>
       </c>
       <c r="E42">
-        <v>0.6325166467989431</v>
+        <v>0.1276466367313837</v>
       </c>
       <c r="F42">
-        <v>-0.5177556092641843</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1384957818498394</v>
+      </c>
+      <c r="G42">
+        <v>-0.9246216607774144</v>
+      </c>
+      <c r="H42">
+        <v>0.184882895305227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01232851174621723</v>
+        <v>-0.01234763536850866</v>
       </c>
       <c r="C43">
-        <v>0.001239076701417488</v>
+        <v>-0.004110247130663538</v>
       </c>
       <c r="D43">
-        <v>0.001208677459544391</v>
+        <v>-0.003153905068277619</v>
       </c>
       <c r="E43">
-        <v>0.01494579493706071</v>
+        <v>-0.0008177863251508503</v>
       </c>
       <c r="F43">
-        <v>0.01949637481440957</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.0103992980815532</v>
+      </c>
+      <c r="G43">
+        <v>-0.008785509281372412</v>
+      </c>
+      <c r="H43">
+        <v>0.006604643208545769</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02047407239687657</v>
+        <v>-0.002930524138691557</v>
       </c>
       <c r="C44">
-        <v>0.02003369014587293</v>
+        <v>0.0405953099030754</v>
       </c>
       <c r="D44">
-        <v>0.01898154575185942</v>
+        <v>-0.005059625576850463</v>
       </c>
       <c r="E44">
-        <v>0.02585816491154743</v>
+        <v>0.006443246689830367</v>
       </c>
       <c r="F44">
-        <v>0.07511891634015744</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.03362218106851331</v>
+      </c>
+      <c r="G44">
+        <v>0.005390549775363239</v>
+      </c>
+      <c r="H44">
+        <v>0.05180293142390337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02143809890462003</v>
+        <v>-0.0007035465788593796</v>
       </c>
       <c r="C46">
-        <v>0.005509289978217297</v>
+        <v>0.0108813088051611</v>
       </c>
       <c r="D46">
-        <v>0.0351839925274955</v>
+        <v>-0.01077835353089515</v>
       </c>
       <c r="E46">
-        <v>-0.005541633953335092</v>
+        <v>0.0002658702101504909</v>
       </c>
       <c r="F46">
-        <v>0.07240329716850613</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.02154100431427399</v>
+      </c>
+      <c r="G46">
+        <v>0.003180714077438312</v>
+      </c>
+      <c r="H46">
+        <v>0.0055259669633935</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07524002938064715</v>
+        <v>-0.04990330458228211</v>
       </c>
       <c r="C47">
-        <v>-0.01284407949400441</v>
+        <v>0.06230331820375436</v>
       </c>
       <c r="D47">
-        <v>0.01611959863660204</v>
+        <v>0.00804626691072593</v>
       </c>
       <c r="E47">
-        <v>-0.02942631399045255</v>
+        <v>-0.0143531169345566</v>
       </c>
       <c r="F47">
-        <v>0.008138622767573347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02095654885631722</v>
+      </c>
+      <c r="G47">
+        <v>-0.01334058442798001</v>
+      </c>
+      <c r="H47">
+        <v>-0.04308892911152878</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02357182606283403</v>
+        <v>-0.01007890666970772</v>
       </c>
       <c r="C48">
-        <v>0.005037627574210737</v>
+        <v>0.01389389499682115</v>
       </c>
       <c r="D48">
-        <v>0.009887521214981175</v>
+        <v>-0.0005075597575779709</v>
       </c>
       <c r="E48">
-        <v>0.0002666002181624824</v>
+        <v>-0.004828380295415138</v>
       </c>
       <c r="F48">
-        <v>0.0279476228423589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01869102446003162</v>
+      </c>
+      <c r="G48">
+        <v>0.0003271434908266764</v>
+      </c>
+      <c r="H48">
+        <v>0.009314230326445747</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07927593087104125</v>
+        <v>-0.05503242253313369</v>
       </c>
       <c r="C50">
-        <v>0.01745770603738836</v>
+        <v>0.05853308989741287</v>
       </c>
       <c r="D50">
-        <v>0.04106940393547861</v>
+        <v>0.006931937480184726</v>
       </c>
       <c r="E50">
-        <v>-0.02621646390441431</v>
+        <v>-0.01505960909917872</v>
       </c>
       <c r="F50">
-        <v>0.02193254230046874</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0429627222347396</v>
+      </c>
+      <c r="G50">
+        <v>-0.01242214509238278</v>
+      </c>
+      <c r="H50">
+        <v>-0.0323280466241083</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02048065948465174</v>
+        <v>-0.008112346281186629</v>
       </c>
       <c r="C51">
-        <v>0.01272317168217314</v>
+        <v>0.01547060194042393</v>
       </c>
       <c r="D51">
-        <v>-0.01288661271950347</v>
+        <v>-0.006283442991938839</v>
       </c>
       <c r="E51">
-        <v>0.0282223013250661</v>
+        <v>-0.008321696789459248</v>
       </c>
       <c r="F51">
-        <v>0.0832729149125198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03072408411038105</v>
+      </c>
+      <c r="G51">
+        <v>0.008226921782374226</v>
+      </c>
+      <c r="H51">
+        <v>0.03568047690368231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09668730789170352</v>
+        <v>-0.06794636217070814</v>
       </c>
       <c r="C53">
-        <v>-0.01543419112894129</v>
+        <v>0.09455315857094687</v>
       </c>
       <c r="D53">
-        <v>0.04090406928256291</v>
+        <v>0.009007895708272786</v>
       </c>
       <c r="E53">
-        <v>-0.06936719491836511</v>
+        <v>-0.03969341624575475</v>
       </c>
       <c r="F53">
-        <v>-0.017471420738968</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01130700474250133</v>
+      </c>
+      <c r="G53">
+        <v>-0.0136651773877808</v>
+      </c>
+      <c r="H53">
+        <v>-0.04987590874588361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02699256092875998</v>
+        <v>-0.0202051535427207</v>
       </c>
       <c r="C54">
-        <v>0.01105315612927356</v>
+        <v>-0.0006480216137376885</v>
       </c>
       <c r="D54">
-        <v>-0.007993147389357805</v>
+        <v>0.005558208709239157</v>
       </c>
       <c r="E54">
-        <v>-0.005408116820743898</v>
+        <v>0.001555884545273975</v>
       </c>
       <c r="F54">
-        <v>0.02938655628118755</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02886496513664859</v>
+      </c>
+      <c r="G54">
+        <v>0.003995447060463929</v>
+      </c>
+      <c r="H54">
+        <v>-0.0001343542866863235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08180720959251746</v>
+        <v>-0.04972555869382002</v>
       </c>
       <c r="C55">
-        <v>-0.01385894261748072</v>
+        <v>0.08557390305402972</v>
       </c>
       <c r="D55">
-        <v>0.06123098253461531</v>
+        <v>0.007137580533928759</v>
       </c>
       <c r="E55">
-        <v>-0.04587036827795716</v>
+        <v>-0.0286880612568045</v>
       </c>
       <c r="F55">
-        <v>-0.0184062189442276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01041342319111351</v>
+      </c>
+      <c r="G55">
+        <v>-0.01948874540019445</v>
+      </c>
+      <c r="H55">
+        <v>-0.04717144580174605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1332587260762793</v>
+        <v>-0.1059340657667493</v>
       </c>
       <c r="C56">
-        <v>-0.03592513255369757</v>
+        <v>0.1289033240624013</v>
       </c>
       <c r="D56">
-        <v>0.04435730011266675</v>
+        <v>0.01922781571218656</v>
       </c>
       <c r="E56">
-        <v>-0.09991969333868167</v>
+        <v>-0.04556057281417016</v>
       </c>
       <c r="F56">
-        <v>-0.04353735058157381</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.005671897158960316</v>
+      </c>
+      <c r="G56">
+        <v>-0.009175404221355198</v>
+      </c>
+      <c r="H56">
+        <v>-0.09086892150083033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0422370172415086</v>
+        <v>-0.01903197734438217</v>
       </c>
       <c r="C57">
-        <v>-0.006492436151322506</v>
+        <v>0.02771756313041156</v>
       </c>
       <c r="D57">
-        <v>0.02372992152236511</v>
+        <v>-0.02298124394186402</v>
       </c>
       <c r="E57">
-        <v>0.04213690334375896</v>
+        <v>0.02883063571447781</v>
       </c>
       <c r="F57">
-        <v>0.04706069422093336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.0239578904727851</v>
+      </c>
+      <c r="G57">
+        <v>0.01590547989686123</v>
+      </c>
+      <c r="H57">
+        <v>0.05117018181069484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1728347106404065</v>
+        <v>-0.06476961670737255</v>
       </c>
       <c r="C58">
-        <v>-0.1509564996773391</v>
+        <v>0.2120953048176045</v>
       </c>
       <c r="D58">
-        <v>0.2251514418421576</v>
+        <v>-0.01426245173993823</v>
       </c>
       <c r="E58">
-        <v>0.2379710567674492</v>
+        <v>0.9407957997391987</v>
       </c>
       <c r="F58">
-        <v>0.5700121261959037</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.09231083949677162</v>
+      </c>
+      <c r="G58">
+        <v>0.1440096340642614</v>
+      </c>
+      <c r="H58">
+        <v>-0.1092748482203873</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08791446148554499</v>
+        <v>-0.2022549808346501</v>
       </c>
       <c r="C59">
-        <v>-0.04159088741523288</v>
+        <v>-0.171861631435745</v>
       </c>
       <c r="D59">
-        <v>-0.1823128700265462</v>
+        <v>0.02311914299228609</v>
       </c>
       <c r="E59">
-        <v>0.07964156353267011</v>
+        <v>0.02528644822663246</v>
       </c>
       <c r="F59">
-        <v>0.03976623732587969</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01499280090352607</v>
+      </c>
+      <c r="G59">
+        <v>0.0007595662566881294</v>
+      </c>
+      <c r="H59">
+        <v>0.013769992628445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1694154786035381</v>
+        <v>-0.2460882375005533</v>
       </c>
       <c r="C60">
-        <v>-0.07899820551198426</v>
+        <v>0.1051810639293465</v>
       </c>
       <c r="D60">
-        <v>-0.001911794812187149</v>
+        <v>0.008938609175548491</v>
       </c>
       <c r="E60">
-        <v>0.05751619327999735</v>
+        <v>-0.03948325717851788</v>
       </c>
       <c r="F60">
-        <v>0.1405983593700745</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1324294089758996</v>
+      </c>
+      <c r="G60">
+        <v>0.1588286630783732</v>
+      </c>
+      <c r="H60">
+        <v>0.3724552490979061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02834520720201849</v>
+        <v>-0.009826409747238245</v>
       </c>
       <c r="C61">
-        <v>-0.0007551956947903149</v>
+        <v>0.06392274702052225</v>
       </c>
       <c r="D61">
-        <v>0.04274529972004247</v>
+        <v>-0.00271309483694042</v>
       </c>
       <c r="E61">
-        <v>-0.00799986161332648</v>
+        <v>-0.01124082681894157</v>
       </c>
       <c r="F61">
-        <v>0.03058752669598294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.005612727551544629</v>
+      </c>
+      <c r="G61">
+        <v>0.02153628171100546</v>
+      </c>
+      <c r="H61">
+        <v>0.04173933291028828</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01671393325535409</v>
+        <v>-0.0050703408127514</v>
       </c>
       <c r="C63">
-        <v>0.008145917730172427</v>
+        <v>0.02201816061174016</v>
       </c>
       <c r="D63">
-        <v>0.01900371631137464</v>
+        <v>-0.006634634076740106</v>
       </c>
       <c r="E63">
-        <v>-0.006504636025920772</v>
+        <v>-0.01777037805613765</v>
       </c>
       <c r="F63">
-        <v>0.009650995691079037</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02218873774490148</v>
+      </c>
+      <c r="G63">
+        <v>0.004336449001407651</v>
+      </c>
+      <c r="H63">
+        <v>0.002752212253457357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0427463078999163</v>
+        <v>-0.03473560746065905</v>
       </c>
       <c r="C64">
-        <v>0.001306294869696092</v>
+        <v>0.04372487097709384</v>
       </c>
       <c r="D64">
-        <v>0.02438358755226888</v>
+        <v>-0.001507390173079891</v>
       </c>
       <c r="E64">
-        <v>-0.007629661991288378</v>
+        <v>-0.02425372538296162</v>
       </c>
       <c r="F64">
-        <v>0.03125381393960917</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.006619498207696247</v>
+      </c>
+      <c r="G64">
+        <v>-0.004897999540126636</v>
+      </c>
+      <c r="H64">
+        <v>0.02707696467634986</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04568112419711397</v>
+        <v>-0.04547674431441661</v>
       </c>
       <c r="C65">
-        <v>-0.003241309134019296</v>
+        <v>0.08488514521000086</v>
       </c>
       <c r="D65">
-        <v>0.03880421935829064</v>
+        <v>-0.01191812001810706</v>
       </c>
       <c r="E65">
-        <v>-0.02793696277873073</v>
+        <v>-0.02995287862741894</v>
       </c>
       <c r="F65">
-        <v>0.03574151842712012</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01289787083987663</v>
+      </c>
+      <c r="G65">
+        <v>0.04635285239682879</v>
+      </c>
+      <c r="H65">
+        <v>0.04896849360782015</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04144607073801505</v>
+        <v>-0.01015109926396734</v>
       </c>
       <c r="C66">
-        <v>-0.01566161436484434</v>
+        <v>0.118796888122506</v>
       </c>
       <c r="D66">
-        <v>0.06233736892446161</v>
+        <v>-0.007208959248846557</v>
       </c>
       <c r="E66">
-        <v>-0.04709873061322314</v>
+        <v>-0.01772612681971186</v>
       </c>
       <c r="F66">
-        <v>0.05942258310956418</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01384404201637152</v>
+      </c>
+      <c r="G66">
+        <v>0.04614434883038652</v>
+      </c>
+      <c r="H66">
+        <v>0.05745795924916782</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03277784043202698</v>
+        <v>-0.04813650449628368</v>
       </c>
       <c r="C67">
-        <v>-0.005397734897560462</v>
+        <v>0.02911447896767421</v>
       </c>
       <c r="D67">
-        <v>-0.008297432529390115</v>
+        <v>0.01010612121531314</v>
       </c>
       <c r="E67">
-        <v>0.02113397046020047</v>
+        <v>-0.01518856669223512</v>
       </c>
       <c r="F67">
-        <v>0.01998701576711548</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01266202377277387</v>
+      </c>
+      <c r="G67">
+        <v>0.0134828905084666</v>
+      </c>
+      <c r="H67">
+        <v>0.01433688084420018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.09513769902932168</v>
+        <v>-0.1995525226571099</v>
       </c>
       <c r="C68">
-        <v>-0.04041137548379132</v>
+        <v>-0.2136340870226978</v>
       </c>
       <c r="D68">
-        <v>-0.1981469576697425</v>
+        <v>0.003561902273450497</v>
       </c>
       <c r="E68">
-        <v>0.09566046476604889</v>
+        <v>0.04155911002371047</v>
       </c>
       <c r="F68">
-        <v>0.01848488000378977</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02621572692724039</v>
+      </c>
+      <c r="G68">
+        <v>-0.04139557777235344</v>
+      </c>
+      <c r="H68">
+        <v>-0.01901121948443002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06766624571521955</v>
+        <v>-0.05338953906781235</v>
       </c>
       <c r="C69">
-        <v>-0.01286048677309845</v>
+        <v>0.06032204113960796</v>
       </c>
       <c r="D69">
-        <v>0.01779205972267301</v>
+        <v>0.01288903485015792</v>
       </c>
       <c r="E69">
-        <v>-0.03472959411040991</v>
+        <v>-0.02882692588149146</v>
       </c>
       <c r="F69">
-        <v>0.02123059137629554</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01050316290387867</v>
+      </c>
+      <c r="G69">
+        <v>0.003473685646392794</v>
+      </c>
+      <c r="H69">
+        <v>-0.0192563787262421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.09921673434359866</v>
+        <v>-0.181915639371874</v>
       </c>
       <c r="C71">
-        <v>-0.026514200288234</v>
+        <v>-0.166069708302976</v>
       </c>
       <c r="D71">
-        <v>-0.1949017487877322</v>
+        <v>0.01041682403337936</v>
       </c>
       <c r="E71">
-        <v>0.1316269926498654</v>
+        <v>0.04034428516631521</v>
       </c>
       <c r="F71">
-        <v>0.0006098604770075082</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.04026152899724973</v>
+      </c>
+      <c r="G71">
+        <v>-0.04268243432438489</v>
+      </c>
+      <c r="H71">
+        <v>-4.498708694441085e-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1025974139911345</v>
+        <v>-0.05672594638491099</v>
       </c>
       <c r="C72">
-        <v>-0.02899213965801245</v>
+        <v>0.09968486815096089</v>
       </c>
       <c r="D72">
-        <v>0.08559727990962035</v>
+        <v>0.01444615126399289</v>
       </c>
       <c r="E72">
-        <v>-0.06567363757631015</v>
+        <v>-0.03952960929747495</v>
       </c>
       <c r="F72">
-        <v>0.1448728390250043</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.0218366606247369</v>
+      </c>
+      <c r="G72">
+        <v>0.06005828442262551</v>
+      </c>
+      <c r="H72">
+        <v>0.05733859833821841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2095556031929987</v>
+        <v>-0.3222716400721304</v>
       </c>
       <c r="C73">
-        <v>-0.1365747398098688</v>
+        <v>0.1632820488649952</v>
       </c>
       <c r="D73">
-        <v>0.03441809055234973</v>
+        <v>0.007391816520007007</v>
       </c>
       <c r="E73">
-        <v>0.09624408240769682</v>
+        <v>-0.03493503305353101</v>
       </c>
       <c r="F73">
-        <v>0.1534045607935041</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1919575395251301</v>
+      </c>
+      <c r="G73">
+        <v>0.1763508637970631</v>
+      </c>
+      <c r="H73">
+        <v>0.4756407610889863</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1287924109575544</v>
+        <v>-0.0951294246546317</v>
       </c>
       <c r="C74">
-        <v>-0.02880358393744664</v>
+        <v>0.1339341250661686</v>
       </c>
       <c r="D74">
-        <v>0.04638729140893242</v>
+        <v>0.01777597348528059</v>
       </c>
       <c r="E74">
-        <v>-0.08549014915926677</v>
+        <v>-0.049044673214544</v>
       </c>
       <c r="F74">
-        <v>-0.0468390577745826</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.01422780355219051</v>
+      </c>
+      <c r="G74">
+        <v>-0.01109055163046297</v>
+      </c>
+      <c r="H74">
+        <v>-0.06693958898220533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2267956060425862</v>
+        <v>-0.2094346127581887</v>
       </c>
       <c r="C75">
-        <v>-0.06846635845924574</v>
+        <v>0.2196042405511933</v>
       </c>
       <c r="D75">
-        <v>0.04308736718693502</v>
+        <v>0.04041766780824377</v>
       </c>
       <c r="E75">
-        <v>-0.2018516516301696</v>
+        <v>-0.07308293037946478</v>
       </c>
       <c r="F75">
-        <v>-0.05190259917418495</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.01266023155950625</v>
+      </c>
+      <c r="G75">
+        <v>-0.0009896195481187457</v>
+      </c>
+      <c r="H75">
+        <v>-0.1904961545157896</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2611505422915246</v>
+        <v>-0.1403528333587988</v>
       </c>
       <c r="C76">
-        <v>-0.05359172871014285</v>
+        <v>0.1866842637800244</v>
       </c>
       <c r="D76">
-        <v>0.05971904141706479</v>
+        <v>0.03281862938654444</v>
       </c>
       <c r="E76">
-        <v>-0.2593709973002543</v>
+        <v>-0.08674953602763379</v>
       </c>
       <c r="F76">
-        <v>-0.1096997980403566</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.01983111584513654</v>
+      </c>
+      <c r="G76">
+        <v>-0.0119189105942654</v>
+      </c>
+      <c r="H76">
+        <v>-0.159626601693405</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09594735688864653</v>
+        <v>-0.04499033410830625</v>
       </c>
       <c r="C77">
-        <v>-0.03147075122115188</v>
+        <v>0.08202240665645713</v>
       </c>
       <c r="D77">
-        <v>0.08527866251975687</v>
+        <v>-0.009973384110246904</v>
       </c>
       <c r="E77">
-        <v>0.07019697077059205</v>
+        <v>0.02533900420172577</v>
       </c>
       <c r="F77">
-        <v>0.06785524525396919</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01875412802960096</v>
+      </c>
+      <c r="G77">
+        <v>-0.02298674408792571</v>
+      </c>
+      <c r="H77">
+        <v>0.005258518701668565</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05065668351223046</v>
+        <v>-0.02572526036622185</v>
       </c>
       <c r="C78">
-        <v>0.003704606387594969</v>
+        <v>0.07360965555358817</v>
       </c>
       <c r="D78">
-        <v>0.09071665257417226</v>
+        <v>-0.003369218322533944</v>
       </c>
       <c r="E78">
-        <v>-0.009870026707595595</v>
+        <v>-0.0001292175936125607</v>
       </c>
       <c r="F78">
-        <v>0.0981816210068763</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.009961292323574402</v>
+      </c>
+      <c r="G78">
+        <v>0.02830372396023318</v>
+      </c>
+      <c r="H78">
+        <v>0.06772939359662</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.3552195448804919</v>
+        <v>-0.08016156896327302</v>
       </c>
       <c r="C80">
-        <v>0.9119615654072889</v>
+        <v>0.1182450491647416</v>
       </c>
       <c r="D80">
-        <v>-0.01557555686422126</v>
+        <v>-0.006177727599685</v>
       </c>
       <c r="E80">
-        <v>0.08542207268663117</v>
+        <v>-0.1082928975488048</v>
       </c>
       <c r="F80">
-        <v>0.01308408194742702</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.926989899015159</v>
+      </c>
+      <c r="G80">
+        <v>-0.08266721624591711</v>
+      </c>
+      <c r="H80">
+        <v>0.170013582689087</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1787159558917952</v>
+        <v>-0.1240066073197357</v>
       </c>
       <c r="C81">
-        <v>-0.04476150603110015</v>
+        <v>0.1383144919710255</v>
       </c>
       <c r="D81">
-        <v>0.02219112927896322</v>
+        <v>0.02343734755751381</v>
       </c>
       <c r="E81">
-        <v>-0.1551467887508667</v>
+        <v>-0.04270131203021246</v>
       </c>
       <c r="F81">
-        <v>-0.036494535735889</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.01249859163523691</v>
+      </c>
+      <c r="G81">
+        <v>-0.004447947698095065</v>
+      </c>
+      <c r="H81">
+        <v>-0.1142627236796593</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.005299570898584276</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.003164415566201684</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.0008496133734194422</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01368928617587225</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.003145025634991853</v>
+      </c>
+      <c r="G82">
+        <v>0.001055104465273103</v>
+      </c>
+      <c r="H82">
+        <v>0.001383102609503027</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04018397743544792</v>
+        <v>-0.02127147575091498</v>
       </c>
       <c r="C83">
-        <v>0.001093880681108632</v>
+        <v>0.02239387311758091</v>
       </c>
       <c r="D83">
-        <v>0.01760164809414909</v>
+        <v>-0.003674695936863458</v>
       </c>
       <c r="E83">
-        <v>0.0307527314969329</v>
+        <v>0.01953153909738272</v>
       </c>
       <c r="F83">
-        <v>0.04724745512475458</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.02477029224033099</v>
+      </c>
+      <c r="G83">
+        <v>0.01092050087735429</v>
+      </c>
+      <c r="H83">
+        <v>0.03837923663010964</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2449696982253989</v>
+        <v>-0.2037392137905139</v>
       </c>
       <c r="C85">
-        <v>-0.07309451072679099</v>
+        <v>0.2167923057239462</v>
       </c>
       <c r="D85">
-        <v>0.05864935611538886</v>
+        <v>0.02887523434631677</v>
       </c>
       <c r="E85">
-        <v>-0.2290544882779134</v>
+        <v>-0.1036348299197038</v>
       </c>
       <c r="F85">
-        <v>-0.06998256834581139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.04655534397913016</v>
+      </c>
+      <c r="G85">
+        <v>0.001314761232116886</v>
+      </c>
+      <c r="H85">
+        <v>-0.1447324220859414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.005040893282351139</v>
+        <v>-0.006240008304669772</v>
       </c>
       <c r="C86">
-        <v>0.005482345336733999</v>
+        <v>0.03533755738060888</v>
       </c>
       <c r="D86">
-        <v>0.04389942704138283</v>
+        <v>-0.007272539275962326</v>
       </c>
       <c r="E86">
-        <v>0.002873642701548513</v>
+        <v>0.001147576563007027</v>
       </c>
       <c r="F86">
-        <v>0.08930107565856391</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02149366233560862</v>
+      </c>
+      <c r="G86">
+        <v>0.0019938169110439</v>
+      </c>
+      <c r="H86">
+        <v>0.04960177198079651</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03099884580047931</v>
+        <v>-0.002592405093050849</v>
       </c>
       <c r="C87">
-        <v>-0.002415812817691316</v>
+        <v>0.03973493268546455</v>
       </c>
       <c r="D87">
-        <v>0.03443164934865928</v>
+        <v>-0.009130733197374449</v>
       </c>
       <c r="E87">
-        <v>0.0203472285643354</v>
+        <v>0.03544347689341343</v>
       </c>
       <c r="F87">
-        <v>0.09789906218463426</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.02104612801549063</v>
+      </c>
+      <c r="G87">
+        <v>0.02586519219065143</v>
+      </c>
+      <c r="H87">
+        <v>0.06822941425407303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0353240172350103</v>
+        <v>-0.04216129098327633</v>
       </c>
       <c r="C88">
-        <v>0.001774804892016298</v>
+        <v>0.02403267292327591</v>
       </c>
       <c r="D88">
-        <v>-0.007177657983704546</v>
+        <v>-0.01814483823034777</v>
       </c>
       <c r="E88">
-        <v>-0.01006163177420498</v>
+        <v>-0.008745736490416127</v>
       </c>
       <c r="F88">
-        <v>-0.002851066406244358</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.02526191628285291</v>
+      </c>
+      <c r="G88">
+        <v>0.009065098003719348</v>
+      </c>
+      <c r="H88">
+        <v>-0.01210088507354797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1625715370560442</v>
+        <v>-0.3117545896048879</v>
       </c>
       <c r="C89">
-        <v>-0.08430292314697263</v>
+        <v>-0.3016402895414005</v>
       </c>
       <c r="D89">
-        <v>-0.3532848081958548</v>
+        <v>0.01691519372163575</v>
       </c>
       <c r="E89">
-        <v>0.1109982895346995</v>
+        <v>0.02993213988395223</v>
       </c>
       <c r="F89">
-        <v>0.02946783329793303</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01404891883173299</v>
+      </c>
+      <c r="G89">
+        <v>-0.02988982884329515</v>
+      </c>
+      <c r="H89">
+        <v>-0.02552578943235516</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1119595623315835</v>
+        <v>-0.2560288096442852</v>
       </c>
       <c r="C90">
-        <v>-0.0638872914392834</v>
+        <v>-0.2717730221489986</v>
       </c>
       <c r="D90">
-        <v>-0.3204477312121123</v>
+        <v>0.0156676461146929</v>
       </c>
       <c r="E90">
-        <v>0.1211378295422179</v>
+        <v>0.04278096122939033</v>
       </c>
       <c r="F90">
-        <v>-0.03685228166489431</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.02100030537149798</v>
+      </c>
+      <c r="G90">
+        <v>-0.05569067358019933</v>
+      </c>
+      <c r="H90">
+        <v>-0.04977673176657747</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2760065219952894</v>
+        <v>-0.1856943287429003</v>
       </c>
       <c r="C91">
-        <v>-0.09215746353079581</v>
+        <v>0.1883374273002024</v>
       </c>
       <c r="D91">
-        <v>0.07104009782048896</v>
+        <v>0.03584599545610616</v>
       </c>
       <c r="E91">
-        <v>-0.2207294149241694</v>
+        <v>-0.07780025635330558</v>
       </c>
       <c r="F91">
-        <v>-0.1609292236592615</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.01184978880626818</v>
+      </c>
+      <c r="G91">
+        <v>-0.03806999222477307</v>
+      </c>
+      <c r="H91">
+        <v>-0.1956033848410066</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1985902288437774</v>
+        <v>-0.2774947277809361</v>
       </c>
       <c r="C92">
-        <v>-0.08725799192624005</v>
+        <v>-0.1926754386343806</v>
       </c>
       <c r="D92">
-        <v>-0.3721914979601696</v>
+        <v>0.06063142924910921</v>
       </c>
       <c r="E92">
-        <v>0.02017025290798457</v>
+        <v>0.03889267059723661</v>
       </c>
       <c r="F92">
-        <v>-0.1042171224921752</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.05045489965496791</v>
+      </c>
+      <c r="G92">
+        <v>-0.03577154492336655</v>
+      </c>
+      <c r="H92">
+        <v>-0.1514830949151547</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1477542686863733</v>
+        <v>-0.2965051046764766</v>
       </c>
       <c r="C93">
-        <v>-0.09779742865435236</v>
+        <v>-0.2556599257900549</v>
       </c>
       <c r="D93">
-        <v>-0.3505786682995506</v>
+        <v>0.02570063719227151</v>
       </c>
       <c r="E93">
-        <v>0.1627942277407074</v>
+        <v>0.04881048114148601</v>
       </c>
       <c r="F93">
-        <v>-0.05829606366331807</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.002147340024964223</v>
+      </c>
+      <c r="G93">
+        <v>-0.04518171607671294</v>
+      </c>
+      <c r="H93">
+        <v>0.002254618746475763</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2901203616942697</v>
+        <v>-0.2367043176056653</v>
       </c>
       <c r="C94">
-        <v>-0.1219061217144488</v>
+        <v>0.232092284953275</v>
       </c>
       <c r="D94">
-        <v>0.01452179149373268</v>
+        <v>0.0265784364008647</v>
       </c>
       <c r="E94">
-        <v>-0.2898717892037016</v>
+        <v>-0.1001763591991693</v>
       </c>
       <c r="F94">
-        <v>-0.03435379375738009</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.06772657576178087</v>
+      </c>
+      <c r="G94">
+        <v>0.03766526899506269</v>
+      </c>
+      <c r="H94">
+        <v>-0.4485296253586286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07025053003851653</v>
+        <v>-0.05417876778995997</v>
       </c>
       <c r="C95">
-        <v>-0.06596956419110131</v>
+        <v>0.1049501946577026</v>
       </c>
       <c r="D95">
-        <v>0.01944727725973789</v>
+        <v>0.01386419157538733</v>
       </c>
       <c r="E95">
-        <v>-0.01354320411488383</v>
+        <v>0.02480725100092292</v>
       </c>
       <c r="F95">
-        <v>0.03744662283303522</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.04866800974049918</v>
+      </c>
+      <c r="G95">
+        <v>0.01201492569119315</v>
+      </c>
+      <c r="H95">
+        <v>0.0378695601088106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1720078840312213</v>
+        <v>-0.1893175528635424</v>
       </c>
       <c r="C98">
-        <v>-0.08825687347845758</v>
+        <v>0.0702199074744958</v>
       </c>
       <c r="D98">
-        <v>-0.01623304555003609</v>
+        <v>0.02982314317183002</v>
       </c>
       <c r="E98">
-        <v>0.1135139946714032</v>
+        <v>0.02251039344625754</v>
       </c>
       <c r="F98">
-        <v>0.131320671289643</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.08142764449738629</v>
+      </c>
+      <c r="G98">
+        <v>0.07036060090145903</v>
+      </c>
+      <c r="H98">
+        <v>0.3062361501195054</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.008577281105658143</v>
+        <v>-0.003429913076572551</v>
       </c>
       <c r="C101">
-        <v>0.01099730962682606</v>
+        <v>0.01981200124169707</v>
       </c>
       <c r="D101">
-        <v>0.03138369089603538</v>
+        <v>-0.006772134894266525</v>
       </c>
       <c r="E101">
-        <v>0.03220131659784427</v>
+        <v>0.02990320819163153</v>
       </c>
       <c r="F101">
-        <v>0.1762307970069705</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03655594682509392</v>
+      </c>
+      <c r="G101">
+        <v>0.02639657752612445</v>
+      </c>
+      <c r="H101">
+        <v>-0.0005758177360160472</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1162591521155837</v>
+        <v>-0.1036225811930951</v>
       </c>
       <c r="C102">
-        <v>-0.03350418127479133</v>
+        <v>0.1062130485071711</v>
       </c>
       <c r="D102">
-        <v>0.0322892154598959</v>
+        <v>0.007081498805776762</v>
       </c>
       <c r="E102">
-        <v>-0.1143641655000947</v>
+        <v>-0.05386261719924456</v>
       </c>
       <c r="F102">
-        <v>-0.0618090825041273</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.01914202733268354</v>
+      </c>
+      <c r="G102">
+        <v>0.001692113982837802</v>
+      </c>
+      <c r="H102">
+        <v>-0.07409957273383067</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04114615567898516</v>
+        <v>-0.009535483161622465</v>
       </c>
       <c r="C103">
-        <v>0.01268628757295868</v>
+        <v>0.01348145424591575</v>
       </c>
       <c r="D103">
-        <v>0.01266095233541818</v>
+        <v>0.00088911438175334</v>
       </c>
       <c r="E103">
-        <v>-0.03849504725464549</v>
+        <v>-0.00317302910357525</v>
       </c>
       <c r="F103">
-        <v>0.01088516012051081</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02340421776404753</v>
+      </c>
+      <c r="G103">
+        <v>-0.0005558772884567607</v>
+      </c>
+      <c r="H103">
+        <v>-0.01117079640725668</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.08671097407357163</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.02860639875909497</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9818549959890825</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04203579684322885</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.001838727309078918</v>
+      </c>
+      <c r="G104">
+        <v>0.1049436576319407</v>
+      </c>
+      <c r="H104">
+        <v>-0.07143037063106615</v>
       </c>
     </row>
   </sheetData>
